--- a/Python/02 On Computer/05 Dynamic Xi der/real u.xlsx
+++ b/Python/02 On Computer/05 Dynamic Xi der/real u.xlsx
@@ -16,10 +16,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6528,8 +6524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B361"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
